--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEHAVARNAN\git\hrmdemo\src\main\java\com\orangehrm\hrmdemo\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEHAVARNAN\git\hrmdemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F9E505A-6F31-4E3B-BE85-133A5DBAB31A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,17 +461,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEHAVARNAN\git\hrmdemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F9E505A-6F31-4E3B-BE85-133A5DBAB31A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44A0D845-902B-481E-B488-19D8D48EF84B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
